--- a/template_task.xlsx
+++ b/template_task.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuanvuong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuanvuong/Desktop/CyberSoft/Bài tập/capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88571FE-CC13-8447-99E9-20711FD90BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F594DA-DAE5-2641-8F83-E0A12E0D620D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Tuan Anh</t>
+  </si>
+  <si>
+    <t>Responsive</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,7 +160,28 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -216,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -312,32 +336,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -368,11 +366,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -416,9 +464,6 @@
     <xf numFmtId="9" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -431,43 +476,62 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,13 +776,14 @@
   <dimension ref="A1:J986"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="4" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="4" width="7.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" customWidth="1"/>
@@ -767,18 +832,18 @@
       <c r="B2" s="8">
         <v>44710</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="22">
         <v>44710</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="33" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="31"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="10"/>
       <c r="J2" s="12"/>
     </row>
@@ -791,17 +856,17 @@
       <c r="D3" s="14">
         <v>0.5</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="33" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="32"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="10"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="11">
@@ -810,16 +875,16 @@
       <c r="C4" s="11">
         <v>43647</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <f>SUM(D5:D7)/3</f>
         <v>0.9</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="33" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="33"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="10"/>
       <c r="J4" s="12"/>
     </row>
@@ -827,21 +892,21 @@
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>43608</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>43616</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>1</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="33"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="10"/>
       <c r="J5" s="12"/>
     </row>
@@ -849,21 +914,21 @@
       <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>43636</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>43644</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>0.9</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="33"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="10"/>
       <c r="J6" s="12"/>
     </row>
@@ -871,23 +936,23 @@
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>43641</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>43647</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>0.8</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="33"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="19"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
@@ -902,12 +967,12 @@
       <c r="D8" s="9">
         <v>1</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="33" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="31"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="10"/>
       <c r="J8" s="12"/>
     </row>
@@ -915,15 +980,21 @@
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="10" t="s">
+      <c r="B9" s="11">
+        <v>44711</v>
+      </c>
+      <c r="C9" s="11">
+        <v>44711</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="31"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="10"/>
       <c r="J9" s="12"/>
     </row>
@@ -931,126 +1002,228 @@
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="10"/>
+      <c r="B10" s="11">
+        <v>44712</v>
+      </c>
+      <c r="C10" s="11">
+        <v>44712</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="11"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="31"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="10"/>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="11">
+        <v>44713</v>
+      </c>
+      <c r="C11" s="11">
+        <v>44713</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>28</v>
+      </c>
       <c r="F11" s="11"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="31"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="10"/>
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="20"/>
+      <c r="B12" s="11">
+        <v>44714</v>
+      </c>
+      <c r="C12" s="11">
+        <v>44714</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>28</v>
+      </c>
       <c r="F12" s="11"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="31"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="10"/>
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="21"/>
+      <c r="B13" s="11">
+        <v>44715</v>
+      </c>
+      <c r="C13" s="11">
+        <v>44715</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>28</v>
+      </c>
       <c r="F13" s="11"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="31"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="10"/>
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="24"/>
+      <c r="B14" s="11">
+        <v>44716</v>
+      </c>
+      <c r="C14" s="11">
+        <v>44716</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
+      <c r="B15" s="11">
+        <v>44717</v>
+      </c>
+      <c r="C15" s="11">
+        <v>44717</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
+      <c r="B16" s="11">
+        <v>44718</v>
+      </c>
+      <c r="C16" s="11">
+        <v>44718</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="B17" s="11">
+        <v>44719</v>
+      </c>
+      <c r="C17" s="11">
+        <v>44719</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
+      <c r="B18" s="11">
+        <v>44720</v>
+      </c>
+      <c r="C18" s="11">
+        <v>44720</v>
+      </c>
+      <c r="D18" s="36">
+        <v>1</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
     </row>
-    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44713</v>
+      </c>
+      <c r="C19" s="11">
+        <v>44721</v>
+      </c>
+      <c r="D19" s="36">
+        <v>1</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+    </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2018,7 +2191,7 @@
     <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <conditionalFormatting sqref="D2 D4:D14">
+  <conditionalFormatting sqref="D2 D4:D19">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
